--- a/xlsxmaps/level_0022.xlsx
+++ b/xlsxmaps/level_0022.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\接收文件\厨房\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD84FAE3-B3C6-43D6-862D-9AFEC6655C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE8628E-850E-4CC8-BC31-1F1F75771E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表 1-1" sheetId="2" r:id="rId2"/>
+    <sheet name="层" sheetId="25" r:id="rId1"/>
+    <sheet name="层 (2)" sheetId="27" r:id="rId2"/>
+    <sheet name="层 (3)" sheetId="28" r:id="rId3"/>
+    <sheet name="层 (4)" sheetId="29" r:id="rId4"/>
+    <sheet name="层 (5)" sheetId="30" r:id="rId5"/>
+    <sheet name="层 (6)" sheetId="31" r:id="rId6"/>
+    <sheet name="层 (7)" sheetId="32" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -41,7 +46,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -54,49 +59,13 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -114,272 +83,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -403,7 +120,7 @@
       <rgbColor rgb="FFA5A5A5"/>
       <rgbColor rgb="FF3F3F3F"/>
       <rgbColor rgb="FF7FD0FF"/>
-      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FFFF00"/>
       <rgbColor rgb="00FF00FF"/>
       <rgbColor rgb="0000FFFF"/>
       <rgbColor rgb="00800000"/>
@@ -1541,175 +1258,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98328020-202E-4617-B88F-D8CF9F0B37E4}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.28515625" style="1"/>
+    <col min="1" max="4" width="16.28515625" style="1"/>
+    <col min="5" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" customHeight="1">
+    <row r="1" spans="1:8" ht="20.25" customHeight="1">
       <c r="A1" s="2">
-        <v>11017000</v>
-      </c>
-      <c r="B1" s="3">
-        <v>21017000</v>
-      </c>
-      <c r="C1" s="4">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
         <v>0</v>
       </c>
       <c r="E1" s="2">
-        <v>11017000</v>
-      </c>
-      <c r="F1" s="3">
-        <v>21017000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="2">
-        <v>11017000</v>
-      </c>
-      <c r="B2" s="3">
-        <v>21017000</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
+        <v>10000000</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10000000</v>
       </c>
       <c r="E2" s="2">
-        <v>11017000</v>
-      </c>
-      <c r="F2" s="3">
-        <v>21017000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
       <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
+        <v>10000000</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10000000</v>
       </c>
       <c r="C3" s="2">
-        <v>11017000</v>
-      </c>
-      <c r="D3" s="3">
-        <v>21017000</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="6">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
+        <v>10000000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10000000</v>
       </c>
       <c r="C4" s="2">
-        <v>11017000</v>
-      </c>
-      <c r="D4" s="3">
-        <v>21017000</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="8">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>10000000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
+        <v>10000000</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10000000</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
+        <v>10000000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1717,168 +1465,1236 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D15359-3424-41D6-859B-8201FD4F974C}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="16.28515625" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="16.28515625" style="18"/>
+    <col min="1" max="4" width="16.28515625" style="1"/>
+    <col min="5" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A1" s="19">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20">
-        <v>0</v>
-      </c>
-      <c r="C1" s="20">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4">
-        <v>0</v>
-      </c>
-      <c r="E1" s="6">
-        <v>0</v>
-      </c>
-      <c r="F1" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A2" s="20">
-        <v>31000000</v>
-      </c>
-      <c r="B2" s="20">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="20">
-        <v>31000000</v>
+    <row r="1" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="20">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="20">
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="2">
+        <v>11017000</v>
+      </c>
+      <c r="B3" s="2">
+        <v>11017000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>11017000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="20">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>31000000</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="20">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="22">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="2">
+        <v>11017000</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>11017000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="2">
+        <v>11017000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>11017000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="2">
+        <v>11017000</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>11017000</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="2">
+        <v>11017000</v>
+      </c>
+      <c r="B7" s="2">
+        <v>11017000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>11017000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD60CE00-2344-40B7-A807-AE386D42E683}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="16.28515625" style="1"/>
+    <col min="5" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024FD6A6-0BB5-427A-BA2B-09B07FE24AF4}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="16.28515625" style="1"/>
+    <col min="5" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135695CF-59B7-4398-80AA-3D7AB58778E9}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="16.28515625" style="1"/>
+    <col min="5" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="2">
+        <v>21017000</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>21017000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="2">
+        <v>21017000</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>21017000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="2">
+        <v>21017000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>21017000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023B711A-7212-4F54-B179-717BE8EAEDBE}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="16.28515625" style="1"/>
+    <col min="5" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01314E9C-0744-43F0-92F5-5E2B25D4F538}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="16.28515625" style="1"/>
+    <col min="5" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
